--- a/statistics/HistoricalDistanceData/historical_distance/Q60441801-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60441801-en.xlsx
@@ -31,70 +31,70 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>Polls 2020-11-02 (smaller states)</t>
+  </si>
+  <si>
     <t>Maryland: Election Tools, Deadlines, Dates, Rules, and Links</t>
   </si>
   <si>
-    <t>Polls 2020-11-02 (smaller states)</t>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+  </si>
+  <si>
+    <t>Maryland postpones primary, shifts special election to mail voting over coronavirus</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Maryland postpones primary, shifts special election to mail voting over coronavirus</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-11-02T00:00:00UTC</t>
   </si>
   <si>
+    <t>2020-08-06T13:13:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-17T11:11:00UTC</t>
+  </si>
+  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2020-03-17T11:11:00UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
+  </si>
+  <si>
     <t>https://www.vote.org/state/maryland/</t>
   </si>
   <si>
-    <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/news/2020/03/17/maryland-postpones-april-28-primary-election-over-coronavirus-133776</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/news/2020/03/17/maryland-postpones-april-28-primary-election-over-coronavirus-133776</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
